--- a/Configuration/pati.xlsx
+++ b/Configuration/pati.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\veena\eclipse-workspace\com.patiquette.scm\configuration\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\veena\eclipse-workspace\com.supplychainmgmt.patiquette\Configuration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D98CC9-6085-490D-B4E3-FC7323ADB40B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F5DC8A-E261-421B-9ABB-ED45924BFABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{71A52731-1F5C-495C-9533-031F65E9FAB5}"/>
   </bookViews>
@@ -546,7 +546,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
